--- a/Hojas de Ruta/Motores/Tambor Decanter/OT 26234 - BALANCEO TAMBOR DECANTER NX-418.xlsx
+++ b/Hojas de Ruta/Motores/Tambor Decanter/OT 26234 - BALANCEO TAMBOR DECANTER NX-418.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmedina\Documents\GitHub\Repositorio-Git\MD-PlanificacionProduccion\Gantt\Motores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmedina\Documents\GitHub\Repositorio-Git\MD-PlanificacionProduccion\Hojas de Ruta\Motores\Tambor Decanter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t>H.H.</t>
   </si>
   <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
     <t>MONTAJE EN MAQUINA BALANCEADORA</t>
   </si>
   <si>
@@ -60,12 +57,18 @@
   </si>
   <si>
     <t>DESMONTAJE DE MAQUINA</t>
+  </si>
+  <si>
+    <t>Cargado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,10 +98,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,15 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -422,16 +433,19 @@
         <v>42583</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="E2" s="2">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F2" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" s="5">
+        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -442,17 +456,18 @@
         <v>42583</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="F3" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -462,17 +477,18 @@
         <v>42583</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.22916666666666666</v>
       </c>
       <c r="F4" s="2">
         <v>0.25</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -482,19 +498,37 @@
         <v>42583</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F5" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <f>SUM(E2:E5)</f>
+        <v>0.28124999999999994</v>
+      </c>
+      <c r="F6" s="3">
+        <f>SUM(F2:F5)</f>
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="G6" s="3">
+        <f>SUM(G2:G5)</f>
+        <v>0.30208333333333331</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>